--- a/animations/1-classic-scanner.xlsx
+++ b/animations/1-classic-scanner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426B0203-F34F-47B3-BD88-C790B8C939DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA01D233-7E4D-1C4D-9EEA-DB0C43E3B6CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-200" yWindow="460" windowWidth="49220" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,8 +57,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF5F0FF"/>
+      <color rgb="FFAB7FFF"/>
+      <color rgb="FF4B317F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -335,18 +350,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="20" width="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="46" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -486,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="K2">
         <v>1</v>
       </c>
@@ -521,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L3">
         <v>1</v>
       </c>
@@ -552,11 +567,8 @@
       <c r="U3" s="1">
         <v>4</v>
       </c>
-      <c r="W3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="M4">
         <v>1</v>
       </c>
@@ -584,14 +596,8 @@
       <c r="U4" s="1">
         <v>8</v>
       </c>
-      <c r="X4">
-        <v>8</v>
-      </c>
-      <c r="AA4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="N5">
         <v>1</v>
       </c>
@@ -616,17 +622,8 @@
       <c r="U5" s="1">
         <v>6</v>
       </c>
-      <c r="Y5">
-        <v>6</v>
-      </c>
-      <c r="AD5">
-        <v>8</v>
-      </c>
-      <c r="AI5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="O6">
         <v>1</v>
       </c>
@@ -648,17 +645,8 @@
       <c r="U6" s="1">
         <v>4</v>
       </c>
-      <c r="W6">
-        <v>4</v>
-      </c>
-      <c r="AH6">
-        <v>6</v>
-      </c>
-      <c r="AS6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="P7">
         <v>1</v>
       </c>
@@ -677,14 +665,8 @@
       <c r="U7" s="1">
         <v>8</v>
       </c>
-      <c r="W7">
-        <v>8</v>
-      </c>
-      <c r="Y7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="Q8">
         <v>1</v>
       </c>
@@ -700,14 +682,8 @@
       <c r="U8" s="1">
         <v>6</v>
       </c>
-      <c r="V8">
-        <v>8</v>
-      </c>
-      <c r="X8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="R9">
         <v>3</v>
       </c>
@@ -720,11 +696,8 @@
       <c r="U9" s="1">
         <v>4</v>
       </c>
-      <c r="W9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="R10">
         <v>2</v>
       </c>
@@ -738,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="R11">
         <v>1</v>
       </c>
@@ -752,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="S12">
         <v>6</v>
       </c>
@@ -763,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="S13">
         <v>4</v>
       </c>
@@ -774,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="S14">
         <v>8</v>
       </c>
@@ -785,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="R15">
         <v>6</v>
       </c>
@@ -799,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="R16">
         <v>4</v>
       </c>
@@ -813,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="R17">
         <v>8</v>
       </c>
@@ -827,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="R18">
         <v>6</v>
       </c>
@@ -841,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="Q19">
         <v>4</v>
       </c>
@@ -858,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="P20">
         <v>8</v>
       </c>
@@ -878,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="P21">
         <v>6</v>
       </c>
@@ -898,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O22">
         <v>4</v>
       </c>
@@ -921,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="O23">
         <v>8</v>
       </c>
@@ -944,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="N24">
         <v>6</v>
       </c>
@@ -970,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="N25">
         <v>4</v>
       </c>
@@ -996,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="M26">
         <v>8</v>
       </c>
@@ -1025,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="L27">
         <v>6</v>
       </c>
@@ -1054,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="K28">
         <v>4</v>
       </c>
@@ -1083,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="I29">
         <v>8</v>
       </c>
@@ -1112,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="G30">
         <v>6</v>
       </c>
@@ -1141,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D31">
         <v>8</v>
       </c>
@@ -1170,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>6</v>
       </c>
@@ -1199,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>4</v>
       </c>
@@ -1228,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>8</v>
       </c>
@@ -1254,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>6</v>
       </c>
@@ -1277,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>4</v>
       </c>
@@ -1297,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>8</v>
       </c>
@@ -1314,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>6</v>
       </c>
@@ -1328,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>4</v>
       </c>
@@ -1339,7 +1312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>8</v>
       </c>
@@ -1350,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>6</v>
       </c>
@@ -1361,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>4</v>
       </c>
@@ -1372,7 +1345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>8</v>
       </c>
@@ -1383,7 +1356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>6</v>
       </c>
@@ -1394,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>4</v>
       </c>
@@ -1405,7 +1378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>4</v>
       </c>
@@ -1419,7 +1392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>3</v>
       </c>
@@ -1433,7 +1406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>2</v>
       </c>
@@ -1447,7 +1420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>1</v>
       </c>
@@ -1464,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>1</v>
       </c>
@@ -1481,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>1</v>
       </c>
@@ -1501,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>1</v>
       </c>
@@ -1521,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>1</v>
       </c>
@@ -1544,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>1</v>
       </c>
@@ -1567,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>1</v>
       </c>
@@ -1593,7 +1566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>1</v>
       </c>
@@ -1625,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D57">
         <v>1</v>
       </c>
@@ -1660,7 +1633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.2">
       <c r="G58">
         <v>1</v>
       </c>
@@ -1695,7 +1668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.2">
       <c r="K59">
         <v>1</v>
       </c>
@@ -1730,7 +1703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.2">
       <c r="P60">
         <v>1</v>
       </c>
@@ -1765,7 +1738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.2">
       <c r="T61">
         <v>1</v>
       </c>
@@ -1800,7 +1773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.2">
       <c r="V62">
         <v>1</v>
       </c>
@@ -1832,7 +1805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.2">
       <c r="W63">
         <v>1</v>
       </c>
@@ -1864,7 +1837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.2">
       <c r="X64">
         <v>1</v>
       </c>
@@ -1893,7 +1866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="25:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="25:35" x14ac:dyDescent="0.2">
       <c r="Y65">
         <v>1</v>
       </c>
@@ -1922,7 +1895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="25:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="25:35" x14ac:dyDescent="0.2">
       <c r="Z66">
         <v>1</v>
       </c>
@@ -1948,7 +1921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="25:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AA67">
         <v>1</v>
       </c>
@@ -1971,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="25:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AC68">
         <v>1</v>
       </c>
@@ -1991,7 +1964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="25:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AD69">
         <v>1</v>
       </c>
@@ -2007,11 +1980,8 @@
       <c r="AH69">
         <v>8</v>
       </c>
-      <c r="AK69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="25:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AE70">
         <v>1</v>
       </c>
@@ -2024,14 +1994,8 @@
       <c r="AH70">
         <v>6</v>
       </c>
-      <c r="AM70">
-        <v>8</v>
-      </c>
-      <c r="AR70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="25:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AF71">
         <v>6</v>
       </c>
@@ -2041,14 +2005,8 @@
       <c r="AH71">
         <v>4</v>
       </c>
-      <c r="AJ71">
-        <v>6</v>
-      </c>
-      <c r="AT71">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="25:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AG72">
         <v>4</v>
       </c>
@@ -2058,11 +2016,8 @@
       <c r="AI72">
         <v>8</v>
       </c>
-      <c r="AP72">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="25:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AG73">
         <v>8</v>
       </c>
@@ -2072,11 +2027,8 @@
       <c r="AI73">
         <v>6</v>
       </c>
-      <c r="AL73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="25:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AG74">
         <v>6</v>
       </c>
@@ -2086,14 +2038,8 @@
       <c r="AI74">
         <v>4</v>
       </c>
-      <c r="AJ74">
-        <v>6</v>
-      </c>
-      <c r="AP74">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="25:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AG75">
         <v>4</v>
       </c>
@@ -2103,14 +2049,8 @@
       <c r="AI75">
         <v>8</v>
       </c>
-      <c r="AL75">
-        <v>6</v>
-      </c>
-      <c r="AT75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="25:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AG76">
         <v>8</v>
       </c>
@@ -2121,7 +2061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="25:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AG77">
         <v>6</v>
       </c>
@@ -2132,7 +2072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="25:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AG78">
         <v>4</v>
       </c>
@@ -2143,7 +2083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="25:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AF79">
         <v>8</v>
       </c>
@@ -2157,7 +2097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="25:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="25:35" x14ac:dyDescent="0.2">
       <c r="AF80">
         <v>6</v>
       </c>
@@ -2171,7 +2111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="14:35" x14ac:dyDescent="0.2">
       <c r="AE81">
         <v>4</v>
       </c>
@@ -2188,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="14:35" x14ac:dyDescent="0.2">
       <c r="AE82">
         <v>8</v>
       </c>
@@ -2205,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="14:35" x14ac:dyDescent="0.2">
       <c r="AD83">
         <v>6</v>
       </c>
@@ -2225,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="14:35" x14ac:dyDescent="0.2">
       <c r="AC84">
         <v>4</v>
       </c>
@@ -2248,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="14:35" x14ac:dyDescent="0.2">
       <c r="AB85">
         <v>8</v>
       </c>
@@ -2274,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="14:35" x14ac:dyDescent="0.2">
       <c r="Z86">
         <v>6</v>
       </c>
@@ -2303,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="14:35" x14ac:dyDescent="0.2">
       <c r="W87">
         <v>4</v>
       </c>
@@ -2335,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:35" x14ac:dyDescent="0.2">
       <c r="S88">
         <v>8</v>
       </c>
@@ -2370,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="14:35" x14ac:dyDescent="0.2">
       <c r="Q89">
         <v>6</v>
       </c>
@@ -2405,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:35" x14ac:dyDescent="0.2">
       <c r="P90">
         <v>4</v>
       </c>
@@ -2437,10 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="M91">
-        <v>4</v>
-      </c>
+    <row r="91" spans="14:35" x14ac:dyDescent="0.2">
       <c r="P91">
         <v>8</v>
       </c>
@@ -2469,10 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="H92">
-        <v>4</v>
-      </c>
+    <row r="92" spans="14:35" x14ac:dyDescent="0.2">
       <c r="O92">
         <v>6</v>
       </c>
@@ -2498,13 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="M93">
-        <v>6</v>
-      </c>
+    <row r="93" spans="14:35" x14ac:dyDescent="0.2">
       <c r="O93">
         <v>4</v>
       </c>
@@ -2527,10 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="J94">
-        <v>6</v>
-      </c>
+    <row r="94" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N94">
         <v>8</v>
       </c>
@@ -2553,13 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="F95">
-        <v>6</v>
-      </c>
-      <c r="L95">
-        <v>8</v>
-      </c>
+    <row r="95" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N95">
         <v>6</v>
       </c>
@@ -2579,13 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>6</v>
-      </c>
-      <c r="I96">
-        <v>8</v>
-      </c>
+    <row r="96" spans="14:35" x14ac:dyDescent="0.2">
       <c r="N96">
         <v>4</v>
       </c>
@@ -2602,13 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E97">
-        <v>8</v>
-      </c>
-      <c r="M97">
-        <v>4</v>
-      </c>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N97">
         <v>8</v>
       </c>
@@ -2622,13 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>8</v>
-      </c>
-      <c r="L98">
-        <v>4</v>
-      </c>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N98">
         <v>6</v>
       </c>
@@ -2639,10 +2540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J99">
-        <v>4</v>
-      </c>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N99">
         <v>4</v>
       </c>
@@ -2653,10 +2551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G100">
-        <v>4</v>
-      </c>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M100">
         <v>8</v>
       </c>
@@ -2670,10 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C101">
-        <v>4</v>
-      </c>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M101">
         <v>6</v>
       </c>
@@ -2687,7 +2579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L102">
         <v>4</v>
       </c>
@@ -2704,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L103">
         <v>8</v>
       </c>
@@ -2721,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K104">
         <v>6</v>
       </c>
@@ -2741,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J105">
         <v>4</v>
       </c>
@@ -2764,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H106">
         <v>8</v>
       </c>
@@ -2793,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E107">
         <v>6</v>
       </c>
@@ -2828,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>4</v>
       </c>
@@ -2863,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>8</v>
       </c>
@@ -2895,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>6</v>
       </c>
@@ -2924,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4</v>
       </c>
@@ -2950,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>8</v>
       </c>
@@ -2973,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6</v>
       </c>
@@ -2993,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4</v>
       </c>
@@ -3010,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>8</v>
       </c>
@@ -3024,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>6</v>
       </c>
@@ -3035,7 +2927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4</v>
       </c>
@@ -3046,7 +2938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>8</v>
       </c>
@@ -3057,7 +2949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>6</v>
       </c>
@@ -3068,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4</v>
       </c>
@@ -3079,7 +2971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4</v>
       </c>
@@ -3093,7 +2985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3107,7 +2999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -3124,7 +3016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3147,7 +3039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3179,7 +3071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C126">
         <v>1</v>
       </c>
@@ -3214,7 +3106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F127">
         <v>1</v>
       </c>
@@ -3249,7 +3141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G128">
         <v>1</v>
       </c>
@@ -3284,7 +3176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="8:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:20" x14ac:dyDescent="0.2">
       <c r="H129">
         <v>1</v>
       </c>
@@ -3319,7 +3211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="8:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:20" x14ac:dyDescent="0.2">
       <c r="I130">
         <v>1</v>
       </c>
@@ -3354,7 +3246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="8:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:20" x14ac:dyDescent="0.2">
       <c r="J131">
         <v>1</v>
       </c>
@@ -3390,6 +3282,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF4B317F"/>
+        <color rgb="FFAB7FFF"/>
+        <color rgb="FFF5F0FF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/animations/1-classic-scanner.xlsx
+++ b/animations/1-classic-scanner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA01D233-7E4D-1C4D-9EEA-DB0C43E3B6CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72964E5-C520-0241-A8E6-BDBC38B8E7CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="460" windowWidth="49220" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="49220" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
   <dimension ref="A1:AT131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
